--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tensorflow mnist true dimenAWS" sheetId="2" r:id="rId2"/>
+    <sheet name="TensorflowCourserammnistAWS" sheetId="3" r:id="rId3"/>
+    <sheet name="TensorflowCourserammnist-batch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Tensorflow mnist true dimension</t>
   </si>
@@ -43,13 +44,67 @@
   </si>
   <si>
     <t>14min 47s</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>procesando</t>
+  </si>
+  <si>
+    <t>termino</t>
+  </si>
+  <si>
+    <t>CPU times: user 13min 46s, sys: 1min 13s, total: 15min</t>
+  </si>
+  <si>
+    <t>Wall time: 15min</t>
+  </si>
+  <si>
+    <t>Parameters have been trained!</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 1.0</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.9559</t>
+  </si>
+  <si>
+    <t>CPU times: user 27min 57s, sys: 1min 25s, total: 29min 23s</t>
+  </si>
+  <si>
+    <t>Wall time: 29min 25s</t>
+  </si>
+  <si>
+    <t>t2.small</t>
+  </si>
+  <si>
+    <t>CPU times: user 20min 40s, sys: 1min 40s, total: 22min 20s</t>
+  </si>
+  <si>
+    <t>Wall time: 14min 13s</t>
+  </si>
+  <si>
+    <t>CPU times: user 40min 1s, sys: 2min 7s, total: 42min 8s</t>
+  </si>
+  <si>
+    <t>Wall time: 26min 8s</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.994327</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.9625</t>
+  </si>
+  <si>
+    <t>Termino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +117,18 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,24 +548,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0.9163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0.93587299999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0.92010000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0.94336399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Tensorflow mnist true dimension</t>
   </si>
@@ -98,6 +98,126 @@
   </si>
   <si>
     <t>Termino</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.997782</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.6259</t>
+  </si>
+  <si>
+    <t>CPU times: user 1h 25min 53s, sys: 3min 9s, total: 1h 29min 2s</t>
+  </si>
+  <si>
+    <t>Wall time: 58min 57s</t>
+  </si>
+  <si>
+    <t>batchnorm</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 1.549897</t>
+  </si>
+  <si>
+    <t>Cost after epoch 100: 0.103190</t>
+  </si>
+  <si>
+    <t>Cost after epoch 200: 0.080752</t>
+  </si>
+  <si>
+    <t>Cost after epoch 300: 0.070439</t>
+  </si>
+  <si>
+    <t>Cost after epoch 400: 0.065263</t>
+  </si>
+  <si>
+    <t>Cost after epoch 500: 0.062289</t>
+  </si>
+  <si>
+    <t>Cost after epoch 600: 0.062641</t>
+  </si>
+  <si>
+    <t>Cost after epoch 700: 0.059469</t>
+  </si>
+  <si>
+    <t>Cost after epoch 800: 0.059070</t>
+  </si>
+  <si>
+    <t>Cost after epoch 900: 0.056447</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.888327</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.7449</t>
+  </si>
+  <si>
+    <t>Wall time: 43min 47s</t>
+  </si>
+  <si>
+    <t>Drop out</t>
+  </si>
+  <si>
+    <t>0.75 para train y para test</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 1.769020</t>
+  </si>
+  <si>
+    <t>epoch 0</t>
+  </si>
+  <si>
+    <t>Cost after epoch 100: 0.485973</t>
+  </si>
+  <si>
+    <t>epoch 100</t>
+  </si>
+  <si>
+    <t>Cost after epoch 200: 0.461385</t>
+  </si>
+  <si>
+    <t>epoch 200</t>
+  </si>
+  <si>
+    <t>Cost after epoch 300: 0.453467</t>
+  </si>
+  <si>
+    <t>epoch 300</t>
+  </si>
+  <si>
+    <t>Cost after epoch 400: 0.445978</t>
+  </si>
+  <si>
+    <t>epoch 400</t>
+  </si>
+  <si>
+    <t>Cost after epoch 500: 0.443368</t>
+  </si>
+  <si>
+    <t>epoch 500</t>
+  </si>
+  <si>
+    <t>Cost after epoch 600: 0.443541</t>
+  </si>
+  <si>
+    <t>epoch 600</t>
+  </si>
+  <si>
+    <t>Cost after epoch 700: 0.431082</t>
+  </si>
+  <si>
+    <t>epoch 700</t>
+  </si>
+  <si>
+    <t>Cost after epoch 800: 0.440996</t>
+  </si>
+  <si>
+    <t>epoch 800</t>
+  </si>
+  <si>
+    <t>Cost after epoch 900: 0.436765</t>
+  </si>
+  <si>
+    <t>epoch 900</t>
   </si>
 </sst>
 </file>
@@ -654,10 +774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,42 +837,262 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B3:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>Tensorflow mnist true dimension</t>
   </si>
@@ -218,6 +218,81 @@
   </si>
   <si>
     <t>epoch 900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instancia </t>
+  </si>
+  <si>
+    <t>Instancia R</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.994273</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.7146</t>
+  </si>
+  <si>
+    <t>CPU times: user 20min 24s, sys: 33.6 s, total: 20min 58s</t>
+  </si>
+  <si>
+    <t>Wall time: 11min 59s</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.981545</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.8208</t>
+  </si>
+  <si>
+    <t>CPU times: user 2min 3s, sys: 4.67 s, total: 2min 8s</t>
+  </si>
+  <si>
+    <t>Wall time: 1min 13s</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.9666</t>
+  </si>
+  <si>
+    <t>CPU times: user 2min 51s, sys: 4.43 s, total: 2min 56s</t>
+  </si>
+  <si>
+    <t>Wall time: 1min 44s</t>
+  </si>
+  <si>
+    <t>CPU times: user 3min 49s, sys: 5.46 s, total: 3min 54s</t>
+  </si>
+  <si>
+    <t>Wall time: 2min 18s</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.9667</t>
+  </si>
+  <si>
+    <t>CPU times: user 2min 9s, sys: 3.23 s, total: 2min 12s</t>
+  </si>
+  <si>
+    <t>Wall time: 1min 16s</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.822218</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.813</t>
+  </si>
+  <si>
+    <t>CPU times: user 2min 19s, sys: 3.52 s, total: 2min 23s</t>
+  </si>
+  <si>
+    <t>Wall time: 1min 22s</t>
+  </si>
+  <si>
+    <t>Train Accuracy: 0.952673</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.9465</t>
+  </si>
+  <si>
+    <t>CPU times: user 2min 19s, sys: 3.84 s, total: 2min 23s</t>
   </si>
 </sst>
 </file>
@@ -774,10 +849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B32"/>
+  <dimension ref="B2:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +995,226 @@
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C34"/>
+  <dimension ref="B3:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,6 +1386,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17715" windowHeight="5715" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Tensorflow mnist true dimenAWS" sheetId="2" r:id="rId2"/>
     <sheet name="TensorflowCourserammnistAWS" sheetId="3" r:id="rId3"/>
     <sheet name="TensorflowCourserammnist-batch" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="6" r:id="rId6"/>
+    <sheet name="DataChallengeBBVA-Copy2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="178">
   <si>
     <t>Tensorflow mnist true dimension</t>
   </si>
@@ -293,13 +296,271 @@
   </si>
   <si>
     <t>CPU times: user 2min 19s, sys: 3.84 s, total: 2min 23s</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.0001  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.878006 Accuracity Test:  0.883649</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.0001  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.0001  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.0001  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.0001  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.009  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.009  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.009  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.009  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.009  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.005  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.005  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.005  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.005  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.005  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.001  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.878006 Accuracity Test:  0.883412</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.001  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.001  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.001  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.001  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.09  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.09  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.09  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.09  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.09  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.05  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.05  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.05  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.05  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.05  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.01  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.01  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.01  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.01  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.01  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.9  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.9  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.9  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.9  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.9  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.5  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.5  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.5  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.5  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.5  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.1  Dropout  1  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.1  Dropout  0.95  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.1  Dropout  0.9  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.1  Dropout  0.85  Epoch:  5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-25-12-2  Learning Rate:  0.1  Dropout  0.8  Epoch:  5</t>
+  </si>
+  <si>
+    <t>----Termino-----</t>
+  </si>
+  <si>
+    <t>CPU times: user 35min 23s, sys: 2min 22s, total: 37min 45s</t>
+  </si>
+  <si>
+    <t>Wall time: 16min 53s</t>
+  </si>
+  <si>
+    <t>nume=10,inicializa=1</t>
+  </si>
+  <si>
+    <t>[[84, 100, 50, 25, 2], 0.001314322752836385, 0.85, 0.88900506, 0.89004737]</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-400-200-100-50-25-2  Learning Rate:  0.006  Dropout  1  Epoch:  10</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 0.324884</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.891786 Accuracity Test:  0.892417</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-400-200-100-50-25-2  Learning Rate:  0.003  Dropout  1  Epoch:  10</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 0.326905</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.891619 Accuracity Test:  0.893365</t>
+  </si>
+  <si>
+    <t>[[84, 1000, 500, 2], 0.0001, 1, 0.88607752, 0.87547392, 2, 2]</t>
+  </si>
+  <si>
+    <t>[[84, 1000, 500, 2</t>
+  </si>
+  <si>
+    <t>[[84, 1000, 200, 25, 2</t>
+  </si>
+  <si>
+    <t>[[84, 800, 400, 200, 100, 50, 25, 2</t>
+  </si>
+  <si>
+    <t>Nume:2</t>
+  </si>
+  <si>
+    <t>84-1000-500-2  Learning Rate:  0.0001  Dropout  1  Epoch:  50</t>
+  </si>
+  <si>
+    <t>inicializa=2</t>
+  </si>
+  <si>
+    <t>DataChallengeBBVA-Copy3</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-1000-500-2  Learning Rate:  0.0001  Dropout  1  Epoch:  50</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 0.327271</t>
+  </si>
+  <si>
+    <t>Cost after epoch 10: 0.269821</t>
+  </si>
+  <si>
+    <t>Cost after epoch 20: 0.243523</t>
+  </si>
+  <si>
+    <t>Cost after epoch 30: 0.223255</t>
+  </si>
+  <si>
+    <t>Cost after epoch 40: 0.207431</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.932437 Accuracity Test:  0.880213</t>
+  </si>
+  <si>
+    <t>DataChallengeBBVA-Copy5</t>
+  </si>
+  <si>
+    <t>Arquitectura:  84-400-300-200-100-50-25-2  Learning Rate:  0.0001  Dropout  1  Epoch:  50  Inicializar:  1</t>
+  </si>
+  <si>
+    <t>Cost after epoch 0: 0.533393</t>
+  </si>
+  <si>
+    <t>Cost after epoch 10: 0.274692</t>
+  </si>
+  <si>
+    <t>Cost after epoch 20: 0.245203</t>
+  </si>
+  <si>
+    <t>Cost after epoch 30: 0.224986</t>
+  </si>
+  <si>
+    <t>Cost after epoch 40: 0.206553</t>
+  </si>
+  <si>
+    <t>Accuracity Train:  0.931747 Accuracity Test:  0.873223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +586,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -355,6 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -1395,4 +1664,1633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A155"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <v>1.4999999999999901E-4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.88572203999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.87559240999999999</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5">
+        <v>1.4999999999999901E-4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.88480197999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.87701421999999996</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.88417464000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.87736963999999995</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.88427918999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.87736963999999995</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.88528293000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.87879145000000003</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9">
+        <v>1E-4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.88580566999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.87890995000000005</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <v>4.8999999999999901E-4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.88381916000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.87914692999999999</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11">
+        <v>1.4999999999999901E-4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.88582658999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.87962085000000001</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.88471836000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.88092417000000001</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>1E-4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.88390279000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.88151657999999999</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14">
+        <v>2.7599999999999899E-3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.88338006000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.88234597000000003</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.88484377000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.88234597000000003</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16">
+        <v>4.8999999999999901E-4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.88545017999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.88246446999999995</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.88505292000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.88258296000000003</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18">
+        <v>1.1999999999999899E-3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.88534564000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.88270139999999997</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.88501107999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.88281989000000005</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.88486469000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.88281989000000005</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.88417464000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.88281989000000005</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22">
+        <v>2.7599999999999899E-3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.88321274999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.88281989000000005</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23">
+        <v>4.8999999999999901E-4</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.88496923000000005</v>
+      </c>
+      <c r="G23">
+        <v>0.88305688000000004</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24">
+        <v>1.1999999999999899E-3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.88457196999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.88305688000000004</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.88459288999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.88341230000000004</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.88476014000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.88341230000000004</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.88509470000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.88341230000000004</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.88586843000000004</v>
+      </c>
+      <c r="G28">
+        <v>0.88376778</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29">
+        <v>1.1999999999999899E-3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.88467651999999997</v>
+      </c>
+      <c r="G29">
+        <v>0.88376778</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.88591027</v>
+      </c>
+      <c r="G30">
+        <v>0.88412321000000005</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.88490652999999997</v>
+      </c>
+      <c r="G31">
+        <v>0.88424170000000002</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32">
+        <v>2.7599999999999899E-3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.88404917999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.88424170000000002</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C4:I32">
+    <sortCondition ref="G4:G32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>